--- a/DataSource/excel/team.xlsx
+++ b/DataSource/excel/team.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -560,8 +560,8 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>3</v>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/team.xlsx
+++ b/DataSource/excel/team.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="team.csv" sheetId="1" r:id="rId1"/>

--- a/DataSource/excel/team.xlsx
+++ b/DataSource/excel/team.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujiel/Documents/mygit/SailingGame/DataSource/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="team.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -40,9 +48,6 @@
   </si>
   <si>
     <t>shiplist</t>
-  </si>
-  <si>
-    <t>4;3;2;1</t>
   </si>
   <si>
     <t>startCity</t>
@@ -139,6 +144,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -470,11 +480,11 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -486,16 +496,16 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -512,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -528,8 +538,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -538,21 +548,21 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>67</v>
@@ -561,16 +571,11 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>